--- a/capstone-DataSet-Comparison.xlsx
+++ b/capstone-DataSet-Comparison.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,25 +77,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,16 +95,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -431,15 +416,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="1" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -466,11 +450,14 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -489,12 +476,15 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <f>_xlfn.STDEV.P(B3:G3)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="0">_xlfn.STDEV.P(B3:G3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2000</v>
+      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -513,12 +503,15 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <f>_xlfn.STDEV.P(B4:G4)</f>
+      <c r="H4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4000</v>
+      </c>
       <c r="B5">
         <v>1.5</v>
       </c>
@@ -537,12 +530,15 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
-        <f>_xlfn.STDEV.P(B5:G5)</f>
+      <c r="H5">
+        <f t="shared" si="0"/>
         <v>0.55901699437494745</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8000</v>
+      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -561,12 +557,15 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="1">
-        <f>_xlfn.STDEV.P(B6:G6)</f>
+      <c r="H6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>16000</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
@@ -585,12 +584,15 @@
       <c r="G7">
         <v>3.3</v>
       </c>
-      <c r="H7" s="1">
-        <f>_xlfn.STDEV.P(B7:G7)</f>
+      <c r="H7">
+        <f t="shared" si="0"/>
         <v>1.2892719737209146</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>32000</v>
+      </c>
       <c r="B8">
         <v>1.5</v>
       </c>
@@ -609,12 +611,15 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <f>_xlfn.STDEV.P(B8:G8)</f>
+      <c r="H8">
+        <f t="shared" si="0"/>
         <v>1.4142135623730951</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>64000</v>
+      </c>
       <c r="B9">
         <v>0</v>
       </c>
@@ -633,12 +638,15 @@
       <c r="G9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H9" s="1">
-        <f>_xlfn.STDEV.P(B9:G9)</f>
+      <c r="H9">
+        <f t="shared" si="0"/>
         <v>1.650925666271972</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>128000</v>
+      </c>
       <c r="B10">
         <v>3.1</v>
       </c>
@@ -657,12 +665,15 @@
       <c r="G10">
         <v>1.5</v>
       </c>
-      <c r="H10" s="1">
-        <f>_xlfn.STDEV.P(B10:G10)</f>
+      <c r="H10">
+        <f t="shared" si="0"/>
         <v>2.0669354663903339</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>256000</v>
+      </c>
       <c r="B11">
         <v>7.9</v>
       </c>
@@ -681,12 +692,15 @@
       <c r="G11">
         <v>10.9</v>
       </c>
-      <c r="H11" s="1">
-        <f>_xlfn.STDEV.P(B11:G11)</f>
+      <c r="H11">
+        <f t="shared" si="0"/>
         <v>2.0829999733290645</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>512000</v>
+      </c>
       <c r="B12">
         <v>22</v>
       </c>
@@ -705,12 +719,15 @@
       <c r="G12">
         <v>19</v>
       </c>
-      <c r="H12" s="1">
-        <f>_xlfn.STDEV.P(B12:G12)</f>
+      <c r="H12">
+        <f t="shared" si="0"/>
         <v>1.4587856441422629</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1024000</v>
+      </c>
       <c r="B13">
         <v>42.3</v>
       </c>
@@ -729,12 +746,15 @@
       <c r="G13">
         <v>34.200000000000003</v>
       </c>
-      <c r="H13" s="1">
-        <f>_xlfn.STDEV.P(B13:G13)</f>
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>3.0427053021210493</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2048000</v>
+      </c>
       <c r="B14">
         <v>85.6</v>
       </c>
@@ -753,12 +773,15 @@
       <c r="G14">
         <v>76.599999999999994</v>
       </c>
-      <c r="H14" s="1">
-        <f>_xlfn.STDEV.P(B14:G14)</f>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>2.9284049507463195</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4096000</v>
+      </c>
       <c r="B15">
         <v>168.8</v>
       </c>
@@ -777,12 +800,15 @@
       <c r="G15">
         <v>162.5</v>
       </c>
-      <c r="H15" s="1">
-        <f>_xlfn.STDEV.P(B15:G15)</f>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>3.2266683884292933</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8192000</v>
+      </c>
       <c r="B16">
         <v>336.1</v>
       </c>
@@ -801,12 +827,15 @@
       <c r="G16">
         <v>329.6</v>
       </c>
-      <c r="H16" s="1">
-        <f>_xlfn.STDEV.P(B16:G16)</f>
+      <c r="H16">
+        <f t="shared" si="0"/>
         <v>2.8680229349772444</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16384000</v>
+      </c>
       <c r="B17">
         <v>688.9</v>
       </c>
@@ -825,12 +854,15 @@
       <c r="G17">
         <v>698.4</v>
       </c>
-      <c r="H17" s="1">
-        <f>_xlfn.STDEV.P(B17:G17)</f>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>5.4585559751030548</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>32768000</v>
+      </c>
       <c r="B18">
         <v>1361</v>
       </c>
@@ -849,12 +881,15 @@
       <c r="G18">
         <v>1359.7</v>
       </c>
-      <c r="H18" s="1">
-        <f>_xlfn.STDEV.P(B18:G18)</f>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>4.6568050564022103</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>65536000</v>
+      </c>
       <c r="B19">
         <v>2739</v>
       </c>
@@ -873,8 +908,8 @@
       <c r="G19">
         <v>2734.5</v>
       </c>
-      <c r="H19" s="1">
-        <f>_xlfn.STDEV.P(B19:G19)</f>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>13.777205409258013</v>
       </c>
     </row>
@@ -904,6 +939,9 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1000</v>
+      </c>
       <c r="B23">
         <v>40.299999999999997</v>
       </c>
@@ -922,12 +960,15 @@
       <c r="G23">
         <v>32.200000000000003</v>
       </c>
-      <c r="H23" s="1">
-        <f>_xlfn.STDEV.P(B23:G23)</f>
+      <c r="H23">
+        <f t="shared" ref="H23:H39" si="1">_xlfn.STDEV.P(B23:G23)</f>
         <v>2.543892468027861</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2000</v>
+      </c>
       <c r="B24">
         <v>32.6</v>
       </c>
@@ -946,12 +987,15 @@
       <c r="G24">
         <v>29.7</v>
       </c>
-      <c r="H24" s="1">
-        <f>_xlfn.STDEV.P(B24:G24)</f>
+      <c r="H24">
+        <f t="shared" si="1"/>
         <v>2.1450848209077629</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4000</v>
+      </c>
       <c r="B25">
         <v>28.2</v>
       </c>
@@ -970,12 +1014,15 @@
       <c r="G25">
         <v>28.2</v>
       </c>
-      <c r="H25" s="1">
-        <f>_xlfn.STDEV.P(B25:G25)</f>
+      <c r="H25">
+        <f t="shared" si="1"/>
         <v>1.472431850903652</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>8000</v>
+      </c>
       <c r="B26">
         <v>31.3</v>
       </c>
@@ -994,12 +1041,15 @@
       <c r="G26">
         <v>26.4</v>
       </c>
-      <c r="H26" s="1">
-        <f>_xlfn.STDEV.P(B26:G26)</f>
+      <c r="H26">
+        <f t="shared" si="1"/>
         <v>3.1404175235503713</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>16000</v>
+      </c>
       <c r="B27">
         <v>27.8</v>
       </c>
@@ -1018,12 +1068,15 @@
       <c r="G27">
         <v>28.1</v>
       </c>
-      <c r="H27" s="1">
-        <f>_xlfn.STDEV.P(B27:G27)</f>
+      <c r="H27">
+        <f t="shared" si="1"/>
         <v>2.8662790435607537</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>32000</v>
+      </c>
       <c r="B28">
         <v>26.8</v>
       </c>
@@ -1042,12 +1095,15 @@
       <c r="G28">
         <v>26.8</v>
       </c>
-      <c r="H28" s="1">
-        <f>_xlfn.STDEV.P(B28:G28)</f>
+      <c r="H28">
+        <f t="shared" si="1"/>
         <v>1.8732028424302827</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>64000</v>
+      </c>
       <c r="B29">
         <v>26.6</v>
       </c>
@@ -1066,12 +1122,15 @@
       <c r="G29">
         <v>28</v>
       </c>
-      <c r="H29" s="1">
-        <f>_xlfn.STDEV.P(B29:G29)</f>
+      <c r="H29">
+        <f t="shared" si="1"/>
         <v>2.3471614061812343</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>128000</v>
+      </c>
       <c r="B30">
         <v>35.700000000000003</v>
       </c>
@@ -1090,12 +1149,15 @@
       <c r="G30">
         <v>37.5</v>
       </c>
-      <c r="H30" s="1">
-        <f>_xlfn.STDEV.P(B30:G30)</f>
+      <c r="H30">
+        <f t="shared" si="1"/>
         <v>2.2647050335284034</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>256000</v>
+      </c>
       <c r="B31">
         <v>36</v>
       </c>
@@ -1114,12 +1176,15 @@
       <c r="G31">
         <v>36</v>
       </c>
-      <c r="H31" s="1">
-        <f>_xlfn.STDEV.P(B31:G31)</f>
+      <c r="H31">
+        <f t="shared" si="1"/>
         <v>2.3057898140695023</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>512000</v>
+      </c>
       <c r="B32">
         <v>48.3</v>
       </c>
@@ -1138,12 +1203,15 @@
       <c r="G32">
         <v>51.6</v>
       </c>
-      <c r="H32" s="1">
-        <f>_xlfn.STDEV.P(B32:G32)</f>
+      <c r="H32">
+        <f t="shared" si="1"/>
         <v>2.8225284173355401</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1024000</v>
+      </c>
       <c r="B33">
         <v>77.900000000000006</v>
       </c>
@@ -1162,12 +1230,15 @@
       <c r="G33">
         <v>72.2</v>
       </c>
-      <c r="H33" s="1">
-        <f>_xlfn.STDEV.P(B33:G33)</f>
+      <c r="H33">
+        <f t="shared" si="1"/>
         <v>5.6055775795184548</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2048000</v>
+      </c>
       <c r="B34">
         <v>120.4</v>
       </c>
@@ -1186,12 +1257,15 @@
       <c r="G34">
         <v>116.9</v>
       </c>
-      <c r="H34" s="1">
-        <f>_xlfn.STDEV.P(B34:G34)</f>
+      <c r="H34">
+        <f t="shared" si="1"/>
         <v>3.3821426476257441</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4096000</v>
+      </c>
       <c r="B35">
         <v>215.6</v>
       </c>
@@ -1210,12 +1284,15 @@
       <c r="G35">
         <v>204.9</v>
       </c>
-      <c r="H35" s="1">
-        <f>_xlfn.STDEV.P(B35:G35)</f>
+      <c r="H35">
+        <f t="shared" si="1"/>
         <v>5.1797683345879451</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8192000</v>
+      </c>
       <c r="B36">
         <v>395.8</v>
       </c>
@@ -1234,12 +1311,15 @@
       <c r="G36">
         <v>392.2</v>
       </c>
-      <c r="H36" s="1">
-        <f>_xlfn.STDEV.P(B36:G36)</f>
+      <c r="H36">
+        <f t="shared" si="1"/>
         <v>3.48074066192176</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16384000</v>
+      </c>
       <c r="B37">
         <v>767.4</v>
       </c>
@@ -1258,12 +1338,15 @@
       <c r="G37">
         <v>768.6</v>
       </c>
-      <c r="H37" s="1">
-        <f>_xlfn.STDEV.P(B37:G37)</f>
+      <c r="H37">
+        <f t="shared" si="1"/>
         <v>6.2569072942540078</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32768000</v>
+      </c>
       <c r="B38">
         <v>1429.6</v>
       </c>
@@ -1282,12 +1365,15 @@
       <c r="G38">
         <v>1448.4</v>
       </c>
-      <c r="H38" s="1">
-        <f>_xlfn.STDEV.P(B38:G38)</f>
+      <c r="H38">
+        <f t="shared" si="1"/>
         <v>6.4934368574910293</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>65536000</v>
+      </c>
       <c r="B39">
         <v>2815.1</v>
       </c>
@@ -1306,8 +1392,8 @@
       <c r="G39">
         <v>2787.3</v>
       </c>
-      <c r="H39" s="1">
-        <f>_xlfn.STDEV.P(B39:G39)</f>
+      <c r="H39">
+        <f t="shared" si="1"/>
         <v>29.170761617299853</v>
       </c>
     </row>
@@ -1337,6 +1423,9 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1000</v>
+      </c>
       <c r="B43">
         <v>37.6</v>
       </c>
@@ -1355,12 +1444,15 @@
       <c r="G43">
         <v>39</v>
       </c>
-      <c r="H43" s="1">
-        <f>_xlfn.STDEV.P(B43:G43)</f>
+      <c r="H43">
+        <f t="shared" ref="H43:H59" si="2">_xlfn.STDEV.P(B43:G43)</f>
         <v>1.6856419812311536</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2000</v>
+      </c>
       <c r="B44">
         <v>40.4</v>
       </c>
@@ -1379,12 +1471,15 @@
       <c r="G44">
         <v>42.1</v>
       </c>
-      <c r="H44" s="1">
-        <f>_xlfn.STDEV.P(B44:G44)</f>
+      <c r="H44">
+        <f t="shared" si="2"/>
         <v>2.969661409805652</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4000</v>
+      </c>
       <c r="B45">
         <v>40.4</v>
       </c>
@@ -1403,12 +1498,15 @@
       <c r="G45">
         <v>37.4</v>
       </c>
-      <c r="H45" s="1">
-        <f>_xlfn.STDEV.P(B45:G45)</f>
+      <c r="H45">
+        <f t="shared" si="2"/>
         <v>2.0888593378524405</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>8000</v>
+      </c>
       <c r="B46">
         <v>37.6</v>
       </c>
@@ -1427,12 +1525,15 @@
       <c r="G46">
         <v>34.4</v>
       </c>
-      <c r="H46" s="1">
-        <f>_xlfn.STDEV.P(B46:G46)</f>
+      <c r="H46">
+        <f t="shared" si="2"/>
         <v>1.594783161854092</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>16000</v>
+      </c>
       <c r="B47">
         <v>39.1</v>
       </c>
@@ -1451,12 +1552,15 @@
       <c r="G47">
         <v>36.200000000000003</v>
       </c>
-      <c r="H47" s="1">
-        <f>_xlfn.STDEV.P(B47:G47)</f>
+      <c r="H47">
+        <f t="shared" si="2"/>
         <v>2.7676705006196096</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>32000</v>
+      </c>
       <c r="B48">
         <v>35.799999999999997</v>
       </c>
@@ -1475,12 +1579,15 @@
       <c r="G48">
         <v>39.200000000000003</v>
       </c>
-      <c r="H48" s="1">
-        <f>_xlfn.STDEV.P(B48:G48)</f>
+      <c r="H48">
+        <f t="shared" si="2"/>
         <v>2.1814877695941584</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>64000</v>
+      </c>
       <c r="B49">
         <v>37.5</v>
       </c>
@@ -1499,12 +1606,15 @@
       <c r="G49">
         <v>35.9</v>
       </c>
-      <c r="H49" s="1">
-        <f>_xlfn.STDEV.P(B49:G49)</f>
+      <c r="H49">
+        <f t="shared" si="2"/>
         <v>2.2755341253331181</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>128000</v>
+      </c>
       <c r="B50">
         <v>39</v>
       </c>
@@ -1523,12 +1633,15 @@
       <c r="G50">
         <v>40.700000000000003</v>
       </c>
-      <c r="H50" s="1">
-        <f>_xlfn.STDEV.P(B50:G50)</f>
+      <c r="H50">
+        <f t="shared" si="2"/>
         <v>2.2263572639328721</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>256000</v>
+      </c>
       <c r="B51">
         <v>46.8</v>
       </c>
@@ -1547,12 +1660,15 @@
       <c r="G51">
         <v>40.5</v>
       </c>
-      <c r="H51" s="1">
-        <f>_xlfn.STDEV.P(B51:G51)</f>
+      <c r="H51">
+        <f t="shared" si="2"/>
         <v>2.8127191272661554</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>512000</v>
+      </c>
       <c r="B52">
         <v>56.2</v>
       </c>
@@ -1571,12 +1687,15 @@
       <c r="G52">
         <v>51.7</v>
       </c>
-      <c r="H52" s="1">
-        <f>_xlfn.STDEV.P(B52:G52)</f>
+      <c r="H52">
+        <f t="shared" si="2"/>
         <v>2.6662499674428304</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1024000</v>
+      </c>
       <c r="B53">
         <v>66.900000000000006</v>
       </c>
@@ -1595,12 +1714,15 @@
       <c r="G53">
         <v>66.900000000000006</v>
       </c>
-      <c r="H53" s="1">
-        <f>_xlfn.STDEV.P(B53:G53)</f>
+      <c r="H53">
+        <f t="shared" si="2"/>
         <v>1.6165807537309513</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2048000</v>
+      </c>
       <c r="B54">
         <v>98.4</v>
       </c>
@@ -1619,12 +1741,15 @@
       <c r="G54">
         <v>96.8</v>
       </c>
-      <c r="H54" s="1">
-        <f>_xlfn.STDEV.P(B54:G54)</f>
+      <c r="H54">
+        <f t="shared" si="2"/>
         <v>2.6411802917130309</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4096000</v>
+      </c>
       <c r="B55">
         <v>163.6</v>
       </c>
@@ -1643,12 +1768,15 @@
       <c r="G55">
         <v>153.30000000000001</v>
       </c>
-      <c r="H55" s="1">
-        <f>_xlfn.STDEV.P(B55:G55)</f>
+      <c r="H55">
+        <f t="shared" si="2"/>
         <v>3.8930136855083779</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>8192000</v>
+      </c>
       <c r="B56">
         <v>295.2</v>
       </c>
@@ -1667,12 +1795,15 @@
       <c r="G56">
         <v>281.5</v>
       </c>
-      <c r="H56" s="1">
-        <f>_xlfn.STDEV.P(B56:G56)</f>
+      <c r="H56">
+        <f t="shared" si="2"/>
         <v>4.9931341749335045</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>16384000</v>
+      </c>
       <c r="B57">
         <v>535.70000000000005</v>
       </c>
@@ -1691,12 +1822,15 @@
       <c r="G57">
         <v>535.9</v>
       </c>
-      <c r="H57" s="1">
-        <f>_xlfn.STDEV.P(B57:G57)</f>
+      <c r="H57">
+        <f t="shared" si="2"/>
         <v>5.0657893977367587</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>32768000</v>
+      </c>
       <c r="B58">
         <v>1006.2</v>
       </c>
@@ -1715,12 +1849,15 @@
       <c r="G58">
         <v>999.8</v>
       </c>
-      <c r="H58" s="1">
-        <f>_xlfn.STDEV.P(B58:G58)</f>
+      <c r="H58">
+        <f t="shared" si="2"/>
         <v>9.2901381403436236</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>65536000</v>
+      </c>
       <c r="B59">
         <v>1954.7</v>
       </c>
@@ -1739,8 +1876,8 @@
       <c r="G59">
         <v>1934.7</v>
       </c>
-      <c r="H59" s="1">
-        <f>_xlfn.STDEV.P(B59:G59)</f>
+      <c r="H59">
+        <f t="shared" si="2"/>
         <v>45.078179002952481</v>
       </c>
     </row>
@@ -1770,6 +1907,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1000</v>
+      </c>
       <c r="B63">
         <v>64.099999999999994</v>
       </c>
@@ -1788,12 +1928,15 @@
       <c r="G63">
         <v>64.2</v>
       </c>
-      <c r="H63" s="1">
-        <f>_xlfn.STDEV.P(B63:G63)</f>
+      <c r="H63">
+        <f t="shared" ref="H63:H79" si="3">_xlfn.STDEV.P(B63:G63)</f>
         <v>1.5192286054295951</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2000</v>
+      </c>
       <c r="B64">
         <v>67.099999999999994</v>
       </c>
@@ -1812,12 +1955,15 @@
       <c r="G64">
         <v>62.5</v>
       </c>
-      <c r="H64" s="1">
-        <f>_xlfn.STDEV.P(B64:G64)</f>
+      <c r="H64">
+        <f t="shared" si="3"/>
         <v>3.3183412857765062</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4000</v>
+      </c>
       <c r="B65">
         <v>64.2</v>
       </c>
@@ -1836,12 +1982,15 @@
       <c r="G65">
         <v>59.3</v>
       </c>
-      <c r="H65" s="1">
-        <f>_xlfn.STDEV.P(B65:G65)</f>
+      <c r="H65">
+        <f t="shared" si="3"/>
         <v>3.4179265969622912</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>8000</v>
+      </c>
       <c r="B66">
         <v>67.2</v>
       </c>
@@ -1860,12 +2009,15 @@
       <c r="G66">
         <v>60.8</v>
       </c>
-      <c r="H66" s="1">
-        <f>_xlfn.STDEV.P(B66:G66)</f>
+      <c r="H66">
+        <f t="shared" si="3"/>
         <v>2.2360679774997925</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>16000</v>
+      </c>
       <c r="B67">
         <v>63.9</v>
       </c>
@@ -1884,12 +2036,15 @@
       <c r="G67">
         <v>61.1</v>
       </c>
-      <c r="H67" s="1">
-        <f>_xlfn.STDEV.P(B67:G67)</f>
+      <c r="H67">
+        <f t="shared" si="3"/>
         <v>2.4524930626246872</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>32000</v>
+      </c>
       <c r="B68">
         <v>61.3</v>
       </c>
@@ -1908,12 +2063,15 @@
       <c r="G68">
         <v>64.3</v>
       </c>
-      <c r="H68" s="1">
-        <f>_xlfn.STDEV.P(B68:G68)</f>
+      <c r="H68">
+        <f t="shared" si="3"/>
         <v>3.4042457151164767</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>64000</v>
+      </c>
       <c r="B69">
         <v>60.8</v>
       </c>
@@ -1932,12 +2090,15 @@
       <c r="G69">
         <v>60.8</v>
       </c>
-      <c r="H69" s="1">
-        <f>_xlfn.STDEV.P(B69:G69)</f>
+      <c r="H69">
+        <f t="shared" si="3"/>
         <v>2.9134267719569591</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>128000</v>
+      </c>
       <c r="B70">
         <v>65.400000000000006</v>
       </c>
@@ -1956,12 +2117,15 @@
       <c r="G70">
         <v>65.7</v>
       </c>
-      <c r="H70" s="1">
-        <f>_xlfn.STDEV.P(B70:G70)</f>
+      <c r="H70">
+        <f t="shared" si="3"/>
         <v>3.0684777260973499</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>256000</v>
+      </c>
       <c r="B71">
         <v>68.8</v>
       </c>
@@ -1980,12 +2144,15 @@
       <c r="G71">
         <v>65.400000000000006</v>
       </c>
-      <c r="H71" s="1">
-        <f>_xlfn.STDEV.P(B71:G71)</f>
+      <c r="H71">
+        <f t="shared" si="3"/>
         <v>1.7406895185529188</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>512000</v>
+      </c>
       <c r="B72">
         <v>73.3</v>
       </c>
@@ -2004,12 +2171,15 @@
       <c r="G72">
         <v>72.099999999999994</v>
       </c>
-      <c r="H72" s="1">
-        <f>_xlfn.STDEV.P(B72:G72)</f>
+      <c r="H72">
+        <f t="shared" si="3"/>
         <v>2.226357263932873</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1024000</v>
+      </c>
       <c r="B73">
         <v>86</v>
       </c>
@@ -2028,12 +2198,15 @@
       <c r="G73">
         <v>84.2</v>
       </c>
-      <c r="H73" s="1">
-        <f>_xlfn.STDEV.P(B73:G73)</f>
+      <c r="H73">
+        <f t="shared" si="3"/>
         <v>3.2525630918810244</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2048000</v>
+      </c>
       <c r="B74">
         <v>107.5</v>
       </c>
@@ -2052,12 +2225,15 @@
       <c r="G74">
         <v>109.5</v>
       </c>
-      <c r="H74" s="1">
-        <f>_xlfn.STDEV.P(B74:G74)</f>
+      <c r="H74">
+        <f t="shared" si="3"/>
         <v>1.1953614051360739</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4096000</v>
+      </c>
       <c r="B75">
         <v>162.5</v>
       </c>
@@ -2076,12 +2252,15 @@
       <c r="G75">
         <v>164</v>
       </c>
-      <c r="H75" s="1">
-        <f>_xlfn.STDEV.P(B75:G75)</f>
+      <c r="H75">
+        <f t="shared" si="3"/>
         <v>2.243075765302831</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>8192000</v>
+      </c>
       <c r="B76">
         <v>265.60000000000002</v>
       </c>
@@ -2100,12 +2279,15 @@
       <c r="G76">
         <v>262.39999999999998</v>
       </c>
-      <c r="H76" s="1">
-        <f>_xlfn.STDEV.P(B76:G76)</f>
+      <c r="H76">
+        <f t="shared" si="3"/>
         <v>19.800387552323873</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>16384000</v>
+      </c>
       <c r="B77">
         <v>493.8</v>
       </c>
@@ -2124,12 +2306,15 @@
       <c r="G77">
         <v>482.8</v>
       </c>
-      <c r="H77" s="1">
-        <f>_xlfn.STDEV.P(B77:G77)</f>
+      <c r="H77">
+        <f t="shared" si="3"/>
         <v>9.3108210641644824</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>32768000</v>
+      </c>
       <c r="B78">
         <v>867.3</v>
       </c>
@@ -2148,12 +2333,15 @@
       <c r="G78">
         <v>882.4</v>
       </c>
-      <c r="H78" s="1">
-        <f>_xlfn.STDEV.P(B78:G78)</f>
+      <c r="H78">
+        <f t="shared" si="3"/>
         <v>10.130098167781423</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>65536000</v>
+      </c>
       <c r="B79">
         <v>1657.6</v>
       </c>
@@ -2172,8 +2360,8 @@
       <c r="G79">
         <v>1664.1</v>
       </c>
-      <c r="H79" s="1">
-        <f>_xlfn.STDEV.P(B79:G79)</f>
+      <c r="H79">
+        <f t="shared" si="3"/>
         <v>24.211292131290005</v>
       </c>
     </row>
@@ -2203,6 +2391,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1000</v>
+      </c>
       <c r="B83">
         <v>121.9</v>
       </c>
@@ -2221,12 +2412,15 @@
       <c r="G83">
         <v>123.2</v>
       </c>
-      <c r="H83" s="1">
-        <f>_xlfn.STDEV.P(B83:G83)</f>
+      <c r="H83">
+        <f t="shared" ref="H83:H99" si="4">_xlfn.STDEV.P(B83:G83)</f>
         <v>1.5485656445742171</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2000</v>
+      </c>
       <c r="B84">
         <v>124.7</v>
       </c>
@@ -2245,12 +2439,15 @@
       <c r="G84">
         <v>118.8</v>
       </c>
-      <c r="H84" s="1">
-        <f>_xlfn.STDEV.P(B84:G84)</f>
+      <c r="H84">
+        <f t="shared" si="4"/>
         <v>2.4763324135144349</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>4000</v>
+      </c>
       <c r="B85">
         <v>122.2</v>
       </c>
@@ -2269,12 +2466,15 @@
       <c r="G85">
         <v>120.2</v>
       </c>
-      <c r="H85" s="1">
-        <f>_xlfn.STDEV.P(B85:G85)</f>
+      <c r="H85">
+        <f t="shared" si="4"/>
         <v>4.3174066289845818</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>8000</v>
+      </c>
       <c r="B86">
         <v>132.5</v>
       </c>
@@ -2293,12 +2493,15 @@
       <c r="G86">
         <v>123.5</v>
       </c>
-      <c r="H86" s="1">
-        <f>_xlfn.STDEV.P(B86:G86)</f>
+      <c r="H86">
+        <f t="shared" si="4"/>
         <v>4.4342104395509034</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>16000</v>
+      </c>
       <c r="B87">
         <v>120.3</v>
       </c>
@@ -2317,12 +2520,15 @@
       <c r="G87">
         <v>118.7</v>
       </c>
-      <c r="H87" s="1">
-        <f>_xlfn.STDEV.P(B87:G87)</f>
+      <c r="H87">
+        <f t="shared" si="4"/>
         <v>2.8702013092387029</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>32000</v>
+      </c>
       <c r="B88">
         <v>125.2</v>
       </c>
@@ -2341,12 +2547,15 @@
       <c r="G88">
         <v>125.2</v>
       </c>
-      <c r="H88" s="1">
-        <f>_xlfn.STDEV.P(B88:G88)</f>
+      <c r="H88">
+        <f t="shared" si="4"/>
         <v>3.1803651083204629</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>64000</v>
+      </c>
       <c r="B89">
         <v>117.1</v>
       </c>
@@ -2365,12 +2574,15 @@
       <c r="G89">
         <v>120.5</v>
       </c>
-      <c r="H89" s="1">
-        <f>_xlfn.STDEV.P(B89:G89)</f>
+      <c r="H89">
+        <f t="shared" si="4"/>
         <v>2.1137775558358931</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>128000</v>
+      </c>
       <c r="B90">
         <v>126.6</v>
       </c>
@@ -2389,12 +2601,15 @@
       <c r="G90">
         <v>126.1</v>
       </c>
-      <c r="H90" s="1">
-        <f>_xlfn.STDEV.P(B90:G90)</f>
+      <c r="H90">
+        <f t="shared" si="4"/>
         <v>2.8290163190291642</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>256000</v>
+      </c>
       <c r="B91">
         <v>129.6</v>
       </c>
@@ -2413,12 +2628,15 @@
       <c r="G91">
         <v>126.8</v>
       </c>
-      <c r="H91" s="1">
-        <f>_xlfn.STDEV.P(B91:G91)</f>
+      <c r="H91">
+        <f t="shared" si="4"/>
         <v>4.1254292705931386</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>512000</v>
+      </c>
       <c r="B92">
         <v>131.19999999999999</v>
       </c>
@@ -2437,12 +2655,15 @@
       <c r="G92">
         <v>126.5</v>
       </c>
-      <c r="H92" s="1">
-        <f>_xlfn.STDEV.P(B92:G92)</f>
+      <c r="H92">
+        <f t="shared" si="4"/>
         <v>3.1504849714854268</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1024000</v>
+      </c>
       <c r="B93">
         <v>140.4</v>
       </c>
@@ -2461,12 +2682,15 @@
       <c r="G93">
         <v>139.1</v>
       </c>
-      <c r="H93" s="1">
-        <f>_xlfn.STDEV.P(B93:G93)</f>
+      <c r="H93">
+        <f t="shared" si="4"/>
         <v>2.7913059468443953</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2048000</v>
+      </c>
       <c r="B94">
         <v>159.19999999999999</v>
       </c>
@@ -2485,12 +2709,15 @@
       <c r="G94">
         <v>170.2</v>
       </c>
-      <c r="H94" s="1">
-        <f>_xlfn.STDEV.P(B94:G94)</f>
+      <c r="H94">
+        <f t="shared" si="4"/>
         <v>3.6012343562852003</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>4096000</v>
+      </c>
       <c r="B95">
         <v>210.9</v>
       </c>
@@ -2509,12 +2736,15 @@
       <c r="G95">
         <v>202.9</v>
       </c>
-      <c r="H95" s="1">
-        <f>_xlfn.STDEV.P(B95:G95)</f>
+      <c r="H95">
+        <f t="shared" si="4"/>
         <v>3.8304336859188948</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>8192000</v>
+      </c>
       <c r="B96">
         <v>314.10000000000002</v>
       </c>
@@ -2533,12 +2763,15 @@
       <c r="G96">
         <v>307.7</v>
       </c>
-      <c r="H96" s="1">
-        <f>_xlfn.STDEV.P(B96:G96)</f>
+      <c r="H96">
+        <f t="shared" si="4"/>
         <v>3.3681927234382432</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>16384000</v>
+      </c>
       <c r="B97">
         <v>512.4</v>
       </c>
@@ -2557,12 +2790,15 @@
       <c r="G97">
         <v>521.6</v>
       </c>
-      <c r="H97" s="1">
-        <f>_xlfn.STDEV.P(B97:G97)</f>
+      <c r="H97">
+        <f t="shared" si="4"/>
         <v>13.351373212769786</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>32768000</v>
+      </c>
       <c r="B98">
         <v>909.3</v>
       </c>
@@ -2581,12 +2817,15 @@
       <c r="G98">
         <v>926.5</v>
       </c>
-      <c r="H98" s="1">
-        <f>_xlfn.STDEV.P(B98:G98)</f>
+      <c r="H98">
+        <f t="shared" si="4"/>
         <v>9.0647056702845514</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>65536000</v>
+      </c>
       <c r="B99">
         <v>1715.6</v>
       </c>
@@ -2605,8 +2844,8 @@
       <c r="G99">
         <v>1717.2</v>
       </c>
-      <c r="H99" s="1">
-        <f>_xlfn.STDEV.P(B99:G99)</f>
+      <c r="H99">
+        <f t="shared" si="4"/>
         <v>21.245993086279192</v>
       </c>
     </row>
@@ -2636,6 +2875,9 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1000</v>
+      </c>
       <c r="B103">
         <v>248.2</v>
       </c>
@@ -2654,12 +2896,15 @@
       <c r="G103">
         <v>239</v>
       </c>
-      <c r="H103" s="1">
-        <f>_xlfn.STDEV.P(B103:G103)</f>
+      <c r="H103">
+        <f t="shared" ref="H103:H119" si="5">_xlfn.STDEV.P(B103:G103)</f>
         <v>3.0978487159102284</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2000</v>
+      </c>
       <c r="B104">
         <v>250</v>
       </c>
@@ -2678,12 +2923,15 @@
       <c r="G104">
         <v>246.9</v>
       </c>
-      <c r="H104" s="1">
-        <f>_xlfn.STDEV.P(B104:G104)</f>
+      <c r="H104">
+        <f t="shared" si="5"/>
         <v>5.5541776068909492</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>4000</v>
+      </c>
       <c r="B105">
         <v>256.5</v>
       </c>
@@ -2702,12 +2950,15 @@
       <c r="G105">
         <v>254.8</v>
       </c>
-      <c r="H105" s="1">
-        <f>_xlfn.STDEV.P(B105:G105)</f>
+      <c r="H105">
+        <f t="shared" si="5"/>
         <v>4.4252118593351017</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>8000</v>
+      </c>
       <c r="B106">
         <v>248.1</v>
       </c>
@@ -2726,12 +2977,15 @@
       <c r="G106">
         <v>251.4</v>
       </c>
-      <c r="H106" s="1">
-        <f>_xlfn.STDEV.P(B106:G106)</f>
+      <c r="H106">
+        <f t="shared" si="5"/>
         <v>8.1483467989252603</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>16000</v>
+      </c>
       <c r="B107">
         <v>251.6</v>
       </c>
@@ -2750,12 +3004,15 @@
       <c r="G107">
         <v>253.4</v>
       </c>
-      <c r="H107" s="1">
-        <f>_xlfn.STDEV.P(B107:G107)</f>
+      <c r="H107">
+        <f t="shared" si="5"/>
         <v>4.4569857776553699</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>32000</v>
+      </c>
       <c r="B108">
         <v>254.6</v>
       </c>
@@ -2774,12 +3031,15 @@
       <c r="G108">
         <v>252.9</v>
       </c>
-      <c r="H108" s="1">
-        <f>_xlfn.STDEV.P(B108:G108)</f>
+      <c r="H108">
+        <f t="shared" si="5"/>
         <v>5.3976589575687566</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>64000</v>
+      </c>
       <c r="B109">
         <v>262.60000000000002</v>
       </c>
@@ -2798,12 +3058,15 @@
       <c r="G109">
         <v>247</v>
       </c>
-      <c r="H109" s="1">
-        <f>_xlfn.STDEV.P(B109:G109)</f>
+      <c r="H109">
+        <f t="shared" si="5"/>
         <v>7.361102725362108</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>128000</v>
+      </c>
       <c r="B110">
         <v>252.8</v>
       </c>
@@ -2822,12 +3085,15 @@
       <c r="G110">
         <v>248.4</v>
       </c>
-      <c r="H110" s="1">
-        <f>_xlfn.STDEV.P(B110:G110)</f>
+      <c r="H110">
+        <f t="shared" si="5"/>
         <v>8.9784309443366741</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>256000</v>
+      </c>
       <c r="B111">
         <v>245.5</v>
       </c>
@@ -2846,12 +3112,15 @@
       <c r="G111">
         <v>257.7</v>
       </c>
-      <c r="H111" s="1">
-        <f>_xlfn.STDEV.P(B111:G111)</f>
+      <c r="H111">
+        <f t="shared" si="5"/>
         <v>4.4465967010987395</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>512000</v>
+      </c>
       <c r="B112">
         <v>245.1</v>
       </c>
@@ -2870,12 +3139,15 @@
       <c r="G112">
         <v>259.5</v>
       </c>
-      <c r="H112" s="1">
-        <f>_xlfn.STDEV.P(B112:G112)</f>
+      <c r="H112">
+        <f t="shared" si="5"/>
         <v>5.8987051309776666</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1024000</v>
+      </c>
       <c r="B113">
         <v>262.39999999999998</v>
       </c>
@@ -2894,12 +3166,15 @@
       <c r="G113">
         <v>273.39999999999998</v>
       </c>
-      <c r="H113" s="1">
-        <f>_xlfn.STDEV.P(B113:G113)</f>
+      <c r="H113">
+        <f t="shared" si="5"/>
         <v>7.9298311597550493</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2048000</v>
+      </c>
       <c r="B114">
         <v>276.10000000000002</v>
       </c>
@@ -2918,12 +3193,15 @@
       <c r="G114">
         <v>287.3</v>
       </c>
-      <c r="H114" s="1">
-        <f>_xlfn.STDEV.P(B114:G114)</f>
+      <c r="H114">
+        <f t="shared" si="5"/>
         <v>5.4934557025205528</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>4096000</v>
+      </c>
       <c r="B115">
         <v>318.8</v>
       </c>
@@ -2942,12 +3220,15 @@
       <c r="G115">
         <v>332.6</v>
       </c>
-      <c r="H115" s="1">
-        <f>_xlfn.STDEV.P(B115:G115)</f>
+      <c r="H115">
+        <f t="shared" si="5"/>
         <v>7.0056326544352157</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>8192000</v>
+      </c>
       <c r="B116">
         <v>415.5</v>
       </c>
@@ -2966,12 +3247,15 @@
       <c r="G116">
         <v>407.8</v>
       </c>
-      <c r="H116" s="1">
-        <f>_xlfn.STDEV.P(B116:G116)</f>
+      <c r="H116">
+        <f t="shared" si="5"/>
         <v>4.8081239122505401</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>16384000</v>
+      </c>
       <c r="B117">
         <v>628.1</v>
       </c>
@@ -2990,12 +3274,15 @@
       <c r="G117">
         <v>616.79999999999995</v>
       </c>
-      <c r="H117" s="1">
-        <f>_xlfn.STDEV.P(B117:G117)</f>
+      <c r="H117">
+        <f t="shared" si="5"/>
         <v>9.4288122263623535</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>32768000</v>
+      </c>
       <c r="B118">
         <v>1017.3</v>
       </c>
@@ -3014,12 +3301,15 @@
       <c r="G118">
         <v>1012.2</v>
       </c>
-      <c r="H118" s="1">
-        <f>_xlfn.STDEV.P(B118:G118)</f>
+      <c r="H118">
+        <f t="shared" si="5"/>
         <v>13.791875627822813</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>65536000</v>
+      </c>
       <c r="B119">
         <v>1800</v>
       </c>
@@ -3038,8 +3328,8 @@
       <c r="G119">
         <v>1820.5</v>
       </c>
-      <c r="H119" s="1">
-        <f>_xlfn.STDEV.P(B119:G119)</f>
+      <c r="H119">
+        <f t="shared" si="5"/>
         <v>31.915617911402926</v>
       </c>
     </row>
